--- a/data/158/COJ/old/s11dn_en.xlsx
+++ b/data/158/COJ/old/s11dn_en.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6370" yWindow="-20" windowWidth="28850" windowHeight="4250"/>
+    <workbookView xWindow="6375" yWindow="-30" windowWidth="28845" windowHeight="4245"/>
   </bookViews>
   <sheets>
     <sheet name="F.Year" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">F.Year!$A:$A</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Quarter!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="114210" fullCalcOnLoad="1"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="18">
   <si>
     <t>Fiscal Year</t>
   </si>
@@ -702,36 +702,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr transitionEvaluation="1"/>
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.92578125" customWidth="1"/>
-    <col min="2" max="90" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="62.8984375" customWidth="1"/>
+    <col min="2" max="91" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="18"/>
     </row>
-    <row r="2" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="18"/>
     </row>
-    <row r="3" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="18"/>
       <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="7"/>
@@ -742,7 +742,7 @@
       <c r="H4" s="7"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -769,9 +769,10 @@
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="9"/>
-    </row>
-    <row r="6" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="9"/>
+    </row>
+    <row r="6" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
@@ -850,11 +851,14 @@
       <c r="Z6" s="6">
         <v>2018</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AA6" s="6">
         <v>2019</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AB6" s="10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -881,9 +885,10 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
-      <c r="AA7" s="11"/>
-    </row>
-    <row r="8" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="11"/>
+    </row>
+    <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>5</v>
       </c>
@@ -960,13 +965,16 @@
         <v>98</v>
       </c>
       <c r="Z8" s="19">
-        <v>97.4</v>
-      </c>
-      <c r="AA8" s="29">
-        <v>98.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>97.3</v>
+      </c>
+      <c r="AA8" s="19">
+        <v>98.8</v>
+      </c>
+      <c r="AB8" s="29">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>6</v>
       </c>
@@ -1045,11 +1053,14 @@
       <c r="Z9" s="19">
         <v>101.4</v>
       </c>
-      <c r="AA9" s="30">
+      <c r="AA9" s="19">
         <v>102.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AB9" s="30">
+        <v>103.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>7</v>
       </c>
@@ -1128,11 +1139,14 @@
       <c r="Z10" s="19">
         <v>103.2</v>
       </c>
-      <c r="AA10" s="30">
+      <c r="AA10" s="19">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AB10" s="30">
+        <v>103.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>8</v>
       </c>
@@ -1211,11 +1225,14 @@
       <c r="Z11" s="19">
         <v>100.2</v>
       </c>
-      <c r="AA11" s="30">
-        <v>100.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA11" s="19">
+        <v>100.6</v>
+      </c>
+      <c r="AB11" s="30">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -1242,9 +1259,10 @@
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
-      <c r="AA12" s="30"/>
-    </row>
-    <row r="13" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="30"/>
+    </row>
+    <row r="13" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>9</v>
       </c>
@@ -1323,11 +1341,14 @@
       <c r="Z13" s="19">
         <v>100.9</v>
       </c>
-      <c r="AA13" s="30">
-        <v>101.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA13" s="19">
+        <v>101.5</v>
+      </c>
+      <c r="AB13" s="30">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -1354,9 +1375,10 @@
       <c r="X14" s="19"/>
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
-      <c r="AA14" s="30"/>
-    </row>
-    <row r="15" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="30"/>
+    </row>
+    <row r="15" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>10</v>
       </c>
@@ -1435,11 +1457,14 @@
       <c r="Z15" s="19">
         <v>96.8</v>
       </c>
-      <c r="AA15" s="30">
+      <c r="AA15" s="19">
         <v>93.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AB15" s="30">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>11</v>
       </c>
@@ -1518,11 +1543,14 @@
       <c r="Z16" s="19">
         <v>101.8</v>
       </c>
-      <c r="AA16" s="30">
+      <c r="AA16" s="19">
         <v>102.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AB16" s="30">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>12</v>
       </c>
@@ -1601,11 +1629,14 @@
       <c r="Z17" s="21">
         <v>100.8</v>
       </c>
-      <c r="AA17" s="31">
+      <c r="AA17" s="21">
         <v>101.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="AB17" s="31">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1617,7 +1648,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1629,7 +1660,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1640,7 +1671,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1651,7 +1682,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1662,7 +1693,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1673,7 +1704,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1684,7 +1715,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1695,7 +1726,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1706,7 +1737,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1731,36 +1762,36 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr transitionEvaluation="1"/>
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.92578125" customWidth="1"/>
-    <col min="2" max="91" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="62.8984375" customWidth="1"/>
+    <col min="2" max="92" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="18"/>
     </row>
-    <row r="2" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="18"/>
     </row>
-    <row r="3" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="18"/>
       <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="7"/>
@@ -1771,7 +1802,7 @@
       <c r="H4" s="7"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1798,9 +1829,10 @@
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="9"/>
-    </row>
-    <row r="6" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="9"/>
+    </row>
+    <row r="6" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
@@ -1879,11 +1911,14 @@
       <c r="Z6" s="6">
         <v>2018</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AA6" s="6">
         <v>2019</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AB6" s="10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1910,9 +1945,10 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
-      <c r="AA7" s="11"/>
-    </row>
-    <row r="8" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="11"/>
+    </row>
+    <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>5</v>
       </c>
@@ -1991,11 +2027,14 @@
       <c r="Z8" s="19">
         <v>97.3</v>
       </c>
-      <c r="AA8" s="29">
+      <c r="AA8" s="19">
         <v>98.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AB8" s="29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>6</v>
       </c>
@@ -2074,11 +2113,14 @@
       <c r="Z9" s="19">
         <v>101.4</v>
       </c>
-      <c r="AA9" s="30">
+      <c r="AA9" s="19">
         <v>102</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AB9" s="30">
+        <v>103.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>7</v>
       </c>
@@ -2157,11 +2199,14 @@
       <c r="Z10" s="19">
         <v>103.1</v>
       </c>
-      <c r="AA10" s="30">
+      <c r="AA10" s="19">
         <v>103.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AB10" s="30">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>8</v>
       </c>
@@ -2240,11 +2285,14 @@
       <c r="Z11" s="19">
         <v>100.1</v>
       </c>
-      <c r="AA11" s="30">
-        <v>100.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA11" s="19">
+        <v>100.4</v>
+      </c>
+      <c r="AB11" s="30">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -2271,9 +2319,10 @@
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
-      <c r="AA12" s="30"/>
-    </row>
-    <row r="13" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="30"/>
+    </row>
+    <row r="13" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>9</v>
       </c>
@@ -2352,11 +2401,14 @@
       <c r="Z13" s="19">
         <v>100.8</v>
       </c>
-      <c r="AA13" s="30">
+      <c r="AA13" s="19">
         <v>101.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AB13" s="30">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -2383,9 +2435,10 @@
       <c r="X14" s="19"/>
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
-      <c r="AA14" s="30"/>
-    </row>
-    <row r="15" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="30"/>
+    </row>
+    <row r="15" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>10</v>
       </c>
@@ -2464,11 +2517,14 @@
       <c r="Z15" s="19">
         <v>97.2</v>
       </c>
-      <c r="AA15" s="30">
-        <v>93.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA15" s="19">
+        <v>93.7</v>
+      </c>
+      <c r="AB15" s="30">
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>11</v>
       </c>
@@ -2547,11 +2603,14 @@
       <c r="Z16" s="19">
         <v>101.7</v>
       </c>
-      <c r="AA16" s="30">
+      <c r="AA16" s="19">
         <v>102.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AB16" s="30">
+        <v>102.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>12</v>
       </c>
@@ -2630,11 +2689,14 @@
       <c r="Z17" s="21">
         <v>100.8</v>
       </c>
-      <c r="AA17" s="31">
-        <v>101.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA17" s="21">
+        <v>101.2</v>
+      </c>
+      <c r="AB17" s="31">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2646,7 +2708,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2658,7 +2720,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2669,7 +2731,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2680,7 +2742,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2691,7 +2753,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2702,7 +2764,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2713,7 +2775,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2724,7 +2786,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2735,7 +2797,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2760,36 +2822,36 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr transitionEvaluation="1"/>
-  <dimension ref="A1:DB19"/>
+  <dimension ref="A1:DF19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.92578125" style="3" customWidth="1"/>
-    <col min="2" max="186" width="15.5703125" style="3" customWidth="1"/>
-    <col min="187" max="16384" width="8.5703125" style="3"/>
+    <col min="1" max="1" width="62.8984375" style="3" customWidth="1"/>
+    <col min="2" max="190" width="15.59765625" style="3" customWidth="1"/>
+    <col min="191" max="16384" width="8.59765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" ht="18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:110" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="18"/>
     </row>
-    <row r="2" spans="1:106" ht="18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:110" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="18"/>
     </row>
-    <row r="3" spans="1:106" ht="18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:110" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="18"/>
     </row>
-    <row r="4" spans="1:106" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:110" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="15"/>
@@ -2829,7 +2891,7 @@
       <c r="AK4" s="16"/>
       <c r="AL4" s="16"/>
     </row>
-    <row r="5" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="5">
         <v>1994</v>
@@ -3143,11 +3205,23 @@
       <c r="DA5" s="5">
         <v>2019</v>
       </c>
-      <c r="DB5" s="9">
+      <c r="DB5" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="DC5" s="5">
+        <v>2020</v>
+      </c>
+      <c r="DD5" s="5">
+        <v>2020</v>
+      </c>
+      <c r="DE5" s="5">
+        <v>2020</v>
+      </c>
+      <c r="DF5" s="9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
@@ -3255,9 +3329,13 @@
       <c r="CY6" s="6"/>
       <c r="CZ6" s="6"/>
       <c r="DA6" s="6"/>
-      <c r="DB6" s="10"/>
-    </row>
-    <row r="7" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="DB6" s="6"/>
+      <c r="DC6" s="6"/>
+      <c r="DD6" s="6"/>
+      <c r="DE6" s="6"/>
+      <c r="DF6" s="10"/>
+    </row>
+    <row r="7" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="8" t="s">
         <v>13</v>
@@ -3571,11 +3649,23 @@
       <c r="DA7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="DB7" s="11" t="s">
+      <c r="DB7" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="DC7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="DD7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="DE7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="DF7" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>5</v>
       </c>
@@ -3883,19 +3973,31 @@
         <v>97.9</v>
       </c>
       <c r="CY8" s="19">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="CZ8" s="19">
         <v>98</v>
       </c>
       <c r="DA8" s="19">
-        <v>99.3</v>
-      </c>
-      <c r="DB8" s="29">
-        <v>99.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+        <v>99.4</v>
+      </c>
+      <c r="DB8" s="19">
+        <v>99.6</v>
+      </c>
+      <c r="DC8" s="19">
+        <v>99.8</v>
+      </c>
+      <c r="DD8" s="19">
+        <v>100.3</v>
+      </c>
+      <c r="DE8" s="19">
+        <v>100.3</v>
+      </c>
+      <c r="DF8" s="29">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>6</v>
       </c>
@@ -4206,16 +4308,28 @@
         <v>102.4</v>
       </c>
       <c r="CZ9" s="19">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="DA9" s="19">
         <v>103.8</v>
       </c>
-      <c r="DB9" s="30">
-        <v>102.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="DB9" s="19">
+        <v>102.5</v>
+      </c>
+      <c r="DC9" s="19">
+        <v>104</v>
+      </c>
+      <c r="DD9" s="19">
+        <v>102.8</v>
+      </c>
+      <c r="DE9" s="19">
+        <v>104.2</v>
+      </c>
+      <c r="DF9" s="30">
+        <v>102.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>7</v>
       </c>
@@ -4508,7 +4622,7 @@
         <v>101.8</v>
       </c>
       <c r="CT10" s="19">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="CU10" s="19">
         <v>102</v>
@@ -4523,19 +4637,31 @@
         <v>103.7</v>
       </c>
       <c r="CY10" s="19">
+        <v>103.6</v>
+      </c>
+      <c r="CZ10" s="19">
         <v>103.7</v>
-      </c>
-      <c r="CZ10" s="19">
-        <v>103.8</v>
       </c>
       <c r="DA10" s="19">
         <v>104.6</v>
       </c>
-      <c r="DB10" s="30">
-        <v>104.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="DB10" s="19">
+        <v>104.8</v>
+      </c>
+      <c r="DC10" s="19">
+        <v>103.7</v>
+      </c>
+      <c r="DD10" s="19">
+        <v>103.8</v>
+      </c>
+      <c r="DE10" s="19">
+        <v>103.4</v>
+      </c>
+      <c r="DF10" s="30">
+        <v>104.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>8</v>
       </c>
@@ -4843,19 +4969,31 @@
         <v>99.6</v>
       </c>
       <c r="CY11" s="19">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="CZ11" s="19">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="DA11" s="19">
-        <v>101.6</v>
-      </c>
-      <c r="DB11" s="30">
-        <v>100.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+        <v>101.5</v>
+      </c>
+      <c r="DB11" s="19">
+        <v>100.3</v>
+      </c>
+      <c r="DC11" s="19">
+        <v>100.9</v>
+      </c>
+      <c r="DD11" s="19">
+        <v>100.2</v>
+      </c>
+      <c r="DE11" s="19">
+        <v>100.9</v>
+      </c>
+      <c r="DF11" s="30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4961,9 +5099,13 @@
       <c r="CY12" s="19"/>
       <c r="CZ12" s="19"/>
       <c r="DA12" s="19"/>
-      <c r="DB12" s="30"/>
-    </row>
-    <row r="13" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="DB12" s="19"/>
+      <c r="DC12" s="19"/>
+      <c r="DD12" s="19"/>
+      <c r="DE12" s="19"/>
+      <c r="DF12" s="30"/>
+    </row>
+    <row r="13" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>9</v>
       </c>
@@ -5268,22 +5410,34 @@
         <v>101.4</v>
       </c>
       <c r="CX13" s="19">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="CY13" s="19">
         <v>101.3</v>
       </c>
       <c r="CZ13" s="19">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="DA13" s="19">
-        <v>102.4</v>
-      </c>
-      <c r="DB13" s="30">
+        <v>102.3</v>
+      </c>
+      <c r="DB13" s="19">
         <v>101.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="DC13" s="19">
+        <v>101.8</v>
+      </c>
+      <c r="DD13" s="19">
+        <v>101.4</v>
+      </c>
+      <c r="DE13" s="19">
+        <v>101.8</v>
+      </c>
+      <c r="DF13" s="30">
+        <v>101.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -5389,9 +5543,13 @@
       <c r="CY14" s="19"/>
       <c r="CZ14" s="19"/>
       <c r="DA14" s="19"/>
-      <c r="DB14" s="30"/>
-    </row>
-    <row r="15" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="DB14" s="19"/>
+      <c r="DC14" s="19"/>
+      <c r="DD14" s="19"/>
+      <c r="DE14" s="19"/>
+      <c r="DF14" s="30"/>
+    </row>
+    <row r="15" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>10</v>
       </c>
@@ -5707,11 +5865,23 @@
       <c r="DA15" s="19">
         <v>93.5</v>
       </c>
-      <c r="DB15" s="30">
+      <c r="DB15" s="19">
         <v>93.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="DC15" s="19">
+        <v>91.4</v>
+      </c>
+      <c r="DD15" s="19">
+        <v>93.3</v>
+      </c>
+      <c r="DE15" s="19">
+        <v>94.5</v>
+      </c>
+      <c r="DF15" s="30">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>11</v>
       </c>
@@ -6027,11 +6197,23 @@
       <c r="DA16" s="19">
         <v>102.8</v>
       </c>
-      <c r="DB16" s="30">
+      <c r="DB16" s="19">
         <v>102.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="DC16" s="19">
+        <v>102.1</v>
+      </c>
+      <c r="DD16" s="19">
+        <v>102</v>
+      </c>
+      <c r="DE16" s="19">
+        <v>101.5</v>
+      </c>
+      <c r="DF16" s="30">
+        <v>101.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>12</v>
       </c>
@@ -6339,19 +6521,31 @@
         <v>100.6</v>
       </c>
       <c r="CY17" s="21">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="CZ17" s="21">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="DA17" s="21">
         <v>102.3</v>
       </c>
-      <c r="DB17" s="31">
+      <c r="DB17" s="21">
         <v>101.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:106" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="DC17" s="21">
+        <v>101.7</v>
+      </c>
+      <c r="DD17" s="21">
+        <v>101.3</v>
+      </c>
+      <c r="DE17" s="21">
+        <v>101.7</v>
+      </c>
+      <c r="DF17" s="31">
+        <v>101.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:110" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6386,7 +6580,7 @@
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
     </row>
   </sheetData>
